--- a/Excel/alumni.xlsx
+++ b/Excel/alumni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{F6E098AC-BC65-4611-A4E0-86C761336BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77B702B1-0C6A-4250-8A6D-E80BA0DB90B3}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{F6E098AC-BC65-4611-A4E0-86C761336BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0165F46-6C90-4C81-931E-5717980064AE}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="876" windowWidth="17820" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="444" yWindow="876" windowWidth="21972" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2567" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="88">
   <si>
     <t>fname</t>
   </si>
@@ -850,6 +850,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1147,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0A7F79-6FD4-4CE6-BA44-41190F8DB04C}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,7 +1212,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1216,7 +1220,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1224,7 +1228,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1232,7 +1236,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1240,30 +1244,30 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>12</v>
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT(A11,B11)</f>
+        <v>@M'oore</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT(A12,B12)</f>
-        <v>@M'oore</v>
+      <c r="C12" t="s">
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1271,7 +1275,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1279,7 +1283,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1287,7 +1291,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1295,7 +1299,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1303,7 +1307,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1311,7 +1315,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1319,7 +1323,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1327,7 +1331,7 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1335,7 +1339,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1343,7 +1347,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1351,7 +1355,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1359,7 +1363,7 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1367,7 +1371,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1375,7 +1379,7 @@
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1383,26 +1387,26 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45674</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>45674</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1410,7 +1414,7 @@
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1418,7 +1422,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1426,7 +1430,7 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1434,7 +1438,7 @@
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1442,15 +1446,15 @@
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1458,7 +1462,7 @@
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1466,7 +1470,7 @@
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1474,7 +1478,7 @@
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1482,7 +1486,7 @@
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1490,7 +1494,7 @@
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1498,7 +1502,7 @@
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1506,7 +1510,7 @@
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1514,7 +1518,7 @@
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1522,7 +1526,7 @@
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1530,7 +1534,7 @@
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1538,7 +1542,7 @@
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1546,7 +1550,7 @@
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1554,7 +1558,7 @@
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -1562,7 +1566,7 @@
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1570,7 +1574,7 @@
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -1578,24 +1582,16 @@
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D52">
-    <sortCondition ref="D1:D52"/>
-    <sortCondition ref="C1:C52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D51">
+    <sortCondition ref="D1:D51"/>
+    <sortCondition ref="C1:C51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
